--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\SiteSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FAC773-19EA-4404-AAC2-E3EB4AA3375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B62501-1C90-4073-9D49-2ADC3253221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8A4E3CB-A2F6-4E73-B688-1B7FD5A4D414}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8A4E3CB-A2F6-4E73-B688-1B7FD5A4D414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>Header</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Các banner chương trình nổi bật</t>
   </si>
   <si>
-    <t>Xu hương tìm kiếm, Thương hiệu nổi bật…</t>
-  </si>
-  <si>
     <t>Đăng nhập/Đăng kí</t>
   </si>
   <si>
@@ -343,6 +340,24 @@
   </si>
   <si>
     <t>Tìm kiếm hệ thống cửa hàng. Hiển thị danh sách cửa hàng</t>
+  </si>
+  <si>
+    <t>Tư vấn qua video call</t>
+  </si>
+  <si>
+    <t>Tư vấn tại cửa hàng</t>
+  </si>
+  <si>
+    <t>Điền thông tin liên lạc, dịch vụ cần tư vấn, khung giờ liên lạc</t>
+  </si>
+  <si>
+    <t>Điền thông tin liên lạc, dịch vụ cần tư vấn, cửa hàng sẽ đến, khung giờ đến</t>
+  </si>
+  <si>
+    <t>Sản phẩm bán chạy</t>
+  </si>
+  <si>
+    <t>Xu hương tìm kiếm</t>
   </si>
 </sst>
 </file>
@@ -353,7 +368,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -373,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -506,11 +521,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,9 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -564,44 +609,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,363 +989,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E6F8F8-0E53-4671-81F2-DC6F402B1DD6}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="D1" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>2</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>4</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>8</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>9</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>10</v>
       </c>
       <c r="B33" s="32"/>
-      <c r="C33" s="31"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>11</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1281,31 +1353,31 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>12</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="31"/>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>13</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>14</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1313,487 +1385,549 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>15</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="31"/>
       <c r="C38" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>16</v>
       </c>
-      <c r="B39" s="26"/>
+      <c r="B39" s="31"/>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="31"/>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="31"/>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>17</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>18</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>19</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>20</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="7" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>21</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B46" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>22</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>23</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>24</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+    <row r="50" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>25</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>26</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" t="s">
+      <c r="B51" s="33"/>
+      <c r="C51" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>27</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" t="s">
+      <c r="B52" s="33"/>
+      <c r="C52" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>28</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" t="s">
+      <c r="B53" s="33"/>
+      <c r="C53" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>29</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="7" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
         <v>30</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B55" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>31</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>32</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="7" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>33</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B58" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
+    <row r="59" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>34</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" t="s">
+      <c r="B59" s="33"/>
+      <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>35</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" t="s">
+      <c r="B60" s="33"/>
+      <c r="C60" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>36</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" t="s">
+      <c r="B61" s="33"/>
+      <c r="C61" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+    <row r="62" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>37</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>38</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="22"/>
-    </row>
-    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>39</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="10" t="s">
+      <c r="B64" s="33"/>
+      <c r="C64" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="24"/>
-    </row>
-    <row r="63" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>40</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B65" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="23" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>41</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+      <c r="D66" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>42</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>43</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>44</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>45</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="46">
+        <v>46</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="47">
+        <v>47</v>
+      </c>
+      <c r="B72" s="42"/>
+      <c r="C72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="48">
+        <v>48</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47">
+        <v>49</v>
+      </c>
+      <c r="B74" s="44"/>
+      <c r="C74" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48">
+        <v>50</v>
+      </c>
+      <c r="B75" s="44"/>
+      <c r="C75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="47">
+        <v>51</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="48">
+        <v>52</v>
+      </c>
+      <c r="B77" s="44"/>
+      <c r="C77" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
-        <v>42</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
-        <v>43</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
-        <v>44</v>
-      </c>
-      <c r="B67" s="26"/>
-      <c r="C67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
-        <v>45</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
-        <v>46</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="11">
-        <v>47</v>
-      </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="36"/>
-      <c r="B71" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="36"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="36"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="33" t="s">
+      <c r="D77" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="36"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="38" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="47">
+        <v>53</v>
+      </c>
+      <c r="B78" s="44"/>
+      <c r="C78" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A75" s="36"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="33" t="s">
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="48">
+        <v>54</v>
+      </c>
+      <c r="B79" s="44"/>
+      <c r="C79" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="24"/>
+    </row>
+    <row r="80" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="47">
+        <v>55</v>
+      </c>
+      <c r="B80" s="36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="36"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="36"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="35"/>
-    </row>
-    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36" t="s">
+      <c r="C80" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="D80" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="41" t="s">
+    </row>
+    <row r="81" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="48">
+        <v>56</v>
+      </c>
+      <c r="B81" s="34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="36" t="s">
+      <c r="C81" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="D81" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="41" t="s">
+    </row>
+    <row r="82" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="47">
+        <v>57</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="40" t="s">
         <v>105</v>
       </c>
+      <c r="D82" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="49">
+        <v>58</v>
+      </c>
+      <c r="B83" s="41"/>
+      <c r="C83" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="B24:B33"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B71:B72"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\SiteSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B62501-1C90-4073-9D49-2ADC3253221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D2590C-368D-4234-856F-522023978EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8A4E3CB-A2F6-4E73-B688-1B7FD5A4D414}"/>
+    <workbookView minimized="1" xWindow="5604" yWindow="3792" windowWidth="9636" windowHeight="8448" xr2:uid="{B8A4E3CB-A2F6-4E73-B688-1B7FD5A4D414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>Header</t>
   </si>
@@ -111,15 +111,6 @@
     <t>Danh sách khuyến mãi</t>
   </si>
   <si>
-    <t>Sản phẩm được tìm nhiều</t>
-  </si>
-  <si>
-    <t>Top tìm kiếm</t>
-  </si>
-  <si>
-    <t>Sản phẩm hot</t>
-  </si>
-  <si>
     <t>Thương hiệu nổi bật</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>Home page</t>
   </si>
   <si>
-    <t>Sub menu</t>
-  </si>
-  <si>
     <t>Các bộ sưu tập khác</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
     <t>Đăng nhập/Đăng kí</t>
   </si>
   <si>
-    <t>Nhập sdt và điền otp, nếu sdt chưa đăng kí tài khoản thì hiện sang trang đăng kí, nếu đã đăng kí sẽ chuyển sang trang thông tin tài khoản</t>
-  </si>
-  <si>
     <t>Đăng ký thành viên</t>
   </si>
   <si>
@@ -358,6 +343,46 @@
   </si>
   <si>
     <t>Xu hương tìm kiếm</t>
+  </si>
+  <si>
+    <t>Nhập sdt, nếu sdt đã dùng để đăng kí thì chuyển sang nhập password, chưa dùng đki tài khoản thì chuyển sang đăng kí mới</t>
+  </si>
+  <si>
+    <t>Sub menu: Nhẫn trơn 9T9, Nhẫn nữ trang sức SJC, Trang sức vàng, Trang sức kim cương, Khánh vàng</t>
+  </si>
+  <si>
+    <t>Trang quan hệ cổ đông</t>
+  </si>
+  <si>
+    <t>Trang cửa hàng</t>
+  </si>
+  <si>
+    <t>Trang Blog</t>
+  </si>
+  <si>
+    <t>Trang lịch sử đơn hàng</t>
+  </si>
+  <si>
+    <t>Trang giỏ hàng</t>
+  </si>
+  <si>
+    <t>Trang đặt lịch hẹn</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>Click vào sdt sẽ chuyển sang trang kết nối với ứng dụng có thể gọi điện</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Dẫn sang trang chủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top tìm kiếm, Sản phẩm hot, Thương hiệu nổi bật, Sản phẩm được tìm nhiều
+textbox valid value:  </t>
   </si>
 </sst>
 </file>
@@ -558,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +636,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,48 +689,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E6F8F8-0E53-4671-81F2-DC6F402B1DD6}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1006,20 +1042,20 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1031,7 +1067,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1077,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1087,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1097,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1107,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1117,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1127,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1137,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1147,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1123,7 +1159,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1169,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1179,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="17" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1189,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
@@ -1163,771 +1199,818 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>2</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>4</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>8</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="51"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>9</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="51"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>10</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="51"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>11</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>12</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>13</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>14</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>15</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>16</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="43"/>
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>11</v>
-      </c>
-      <c r="B34" s="31" t="s">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="43"/>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>17</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>18</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>19</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>20</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>12</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>13</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>14</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>21</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>15</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>16</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>22</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="31"/>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="31"/>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>17</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>18</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>19</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>20</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>21</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>22</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>23</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>24</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>25</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>26</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" t="s">
-        <v>50</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <v>27</v>
-      </c>
-      <c r="B52" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="B52" s="47"/>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
-        <v>28</v>
-      </c>
-      <c r="B53" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="B53" s="47"/>
       <c r="C53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>29</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>30</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B55" s="47"/>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>31</v>
-      </c>
-      <c r="B56" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="B56" s="47"/>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
-        <v>32</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>29</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>33</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
-        <v>34</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <v>35</v>
-      </c>
-      <c r="B60" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="B60" s="43"/>
       <c r="C60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
+        <v>32</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>33</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>34</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>35</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>36</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" t="s">
+      <c r="B65" s="47"/>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>37</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>37</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>38</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>39</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="23"/>
-    </row>
-    <row r="65" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>40</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>41</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>42</v>
-      </c>
-      <c r="B67" s="31"/>
+      <c r="B67" s="47"/>
       <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
+        <v>39</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>40</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>41</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>42</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>43</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" t="s">
+      <c r="B72" s="43"/>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>44</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>45</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="21" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="31">
+        <v>46</v>
+      </c>
+      <c r="B75" s="37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>44</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" t="s">
+      <c r="C75" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D75" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>45</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="7" t="s">
+    <row r="76" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="32">
+        <v>47</v>
+      </c>
+      <c r="B76" s="48"/>
+      <c r="C76" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D76" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="46">
-        <v>46</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="47">
-        <v>47</v>
-      </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="7" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
+        <v>48</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D77" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="32">
+        <v>49</v>
+      </c>
+      <c r="B78" s="46"/>
+      <c r="C78" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="48">
-        <v>48</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="D78" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="33">
+        <v>50</v>
+      </c>
+      <c r="B79" s="46"/>
+      <c r="C79" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="32">
+        <v>51</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
+        <v>52</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="32">
+        <v>53</v>
+      </c>
+      <c r="B82" s="46"/>
+      <c r="C82" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="33">
+        <v>54</v>
+      </c>
+      <c r="B83" s="46"/>
+      <c r="C83" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="32">
+        <v>55</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47">
-        <v>49</v>
-      </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48">
-        <v>50</v>
-      </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="21" t="s">
+    <row r="85" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>56</v>
+      </c>
+      <c r="B85" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="47">
-        <v>51</v>
-      </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="48">
-        <v>52</v>
-      </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="21" t="s">
+      <c r="C85" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="47">
-        <v>53</v>
-      </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="48">
-        <v>54</v>
-      </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" s="24"/>
-    </row>
-    <row r="80" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="47">
-        <v>55</v>
-      </c>
-      <c r="B80" s="36" t="s">
+      <c r="D85" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="39" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="32">
+        <v>57</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D86" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
+        <v>58</v>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
-        <v>56</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="25" t="s">
+      <c r="D87" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="47">
-        <v>57</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="49">
-        <v>58</v>
-      </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B82:B83"/>
+  <mergeCells count="14">
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="B86:B87"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B24:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
